--- a/03/data_enrichment_simplified.xlsx
+++ b/03/data_enrichment_simplified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelica/Books/O'Reilly - AI with Excel/Learning-Generative-AI-Tools-for-Excel/03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angelica\Documents\Work\Books\OReilly - Excel\Learning-Generative-AI-Tools-for-Excel\03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBCE99A-D3CA-E24A-86A8-56505E9D0C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8631DB69-8398-4C0C-ADF4-202B8F9169CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15780" xr2:uid="{B3AC0E17-5A36-9B41-AE24-A7AFD37B9CCD}"/>
+    <workbookView xWindow="6090" yWindow="3300" windowWidth="28740" windowHeight="15350" xr2:uid="{B3AC0E17-5A36-9B41-AE24-A7AFD37B9CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>To read</t>
   </si>
   <si>
-    <t>The Data Storytelling's Handbook</t>
+    <t>The Data Storyteller's Handbook</t>
   </si>
 </sst>
 </file>
@@ -111,11 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,16 +592,16 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -618,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -626,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -634,8 +633,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
